--- a/JVM/2.内存管理机制.xlsx
+++ b/JVM/2.内存管理机制.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE61A6A-7A34-4EA0-83B0-7E74104FE11B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F011E-D9EE-479B-84B5-FA654C86C053}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JVM5大块说明" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>用于存放编译期生成的各种字面量和符号引用，这部分内容就在加载后进入方法区的运行时常量池中存放</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JAVA堆中将会划分出一块内存来作为句柄池，reference中存储的就是对象的句柄地址，句柄中包含了对象实例数据与类型数据各自的具体地址信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>句柄访问对象：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,6 +344,30 @@
   </si>
   <si>
     <t>JVM使用对象相关点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference中存储的就是对象的句柄地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句柄中包含了对象实例数据与类型数据各自的具体地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA堆中将会划分出一块内存来作为句柄池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference直接存储对象实例的数据和对象类型数据的指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点就是如果对象被移动了（垃圾收集导致的移动了对象）只会改变句柄中的实例数据指针，不用修改reference本身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点就是因为减少了一次指针定位的开销，所以速度快</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A400BF78-41AA-49DA-AEAC-BF1F51FECDA8}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1065,52 +1085,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B805467-4C18-4137-A89A-9D8C75B55854}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/JVM/2.内存管理机制.xlsx
+++ b/JVM/2.内存管理机制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="20490" windowHeight="7935" tabRatio="758" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JVM5大块说明" sheetId="2" r:id="rId1"/>
@@ -432,9 +432,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -447,6 +447,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -454,17 +491,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,15 +551,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,22 +574,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -538,55 +582,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -599,181 +599,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,10 +793,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -817,50 +834,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -872,6 +845,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,145 +896,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1363,8 +1363,8 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="A24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1521,7 +1521,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E11" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1686,7 +1686,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1754,8 +1754,8 @@
   <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1837,7 +1837,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="G44" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -2021,8 +2021,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>

--- a/JVM/2.内存管理机制.xlsx
+++ b/JVM/2.内存管理机制.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JavaMS\JVM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B2A97E-02EA-4D60-AA5C-188E7FBD13B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935" tabRatio="758" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15540" tabRatio="758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JVM5大块说明" sheetId="2" r:id="rId1"/>
@@ -430,14 +436,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,345 +446,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -792,312 +468,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1355,183 +745,182 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="A24:E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1539,17 +928,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1557,37 +946,37 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -1595,27 +984,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1623,32 +1012,32 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1656,12 +1045,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1669,52 +1058,51 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1722,12 +1110,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1735,7 +1123,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1744,290 +1132,287 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G44" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G44" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -2035,7 +1420,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -2043,7 +1428,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -2051,7 +1436,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -2059,7 +1444,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -2067,7 +1452,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -2076,7 +1461,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/JVM/2.内存管理机制.xlsx
+++ b/JVM/2.内存管理机制.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JavaMS\JVM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B2A97E-02EA-4D60-AA5C-188E7FBD13B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15540" tabRatio="758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25200" windowHeight="12165" tabRatio="758" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JVM5大块说明" sheetId="2" r:id="rId1"/>
@@ -67,13 +61,13 @@
     <t>JAVA虚拟机栈</t>
   </si>
   <si>
-    <t>虚拟机栈为虚拟机执行JAVA方法（字节码）服务，是线程私有的</t>
+    <t>虚拟机栈描述的是java方法执行的内存模型，为虚拟机执行JAVA方法（字节码）服务，是线程私有的</t>
   </si>
   <si>
     <t>每个方法在执行的同时都会创建一个栈帧，用来存储局部变量表，操作数栈，动态链接，方法出口信息</t>
   </si>
   <si>
-    <t>每一个方法从调用直至执行完成的过程，就对应着一个栈帧在虚拟机栈中入栈到出栈的过程。</t>
+    <t>每个方法从调用直至执行完成的过程，就对应着一个栈帧在虚拟机栈中入栈到出栈的过程。</t>
   </si>
   <si>
     <t>局部变量表：boolean,byte,char,short,int,float,long,double</t>
@@ -436,8 +430,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,21 +446,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -468,29 +792,404 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514850" y="2238375"/>
+          <a:ext cx="7305675" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="6877050"/>
+          <a:ext cx="7381875" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,182 +1444,183 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2">
       <c r="B31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -928,17 +1628,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -946,37 +1646,37 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:3">
       <c r="C11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -984,27 +1684,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1012,32 +1712,32 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3">
       <c r="C26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1045,12 +1745,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1058,51 +1758,52 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1110,12 +1811,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1123,7 +1824,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1132,287 +1833,291 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G44" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:XFD1048576"/>
+      <selection activeCell="D6" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -1420,7 +2125,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -1428,7 +2133,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1436,7 +2141,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -1444,7 +2149,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -1452,7 +2157,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -1461,7 +2166,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/JVM/2.内存管理机制.xlsx
+++ b/JVM/2.内存管理机制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12165" tabRatio="758" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7935" tabRatio="758" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JVM5大块说明" sheetId="2" r:id="rId1"/>
@@ -193,10 +193,10 @@
     <t>解决方法：</t>
   </si>
   <si>
-    <t>1.CAS配上失败充实的方法保证更新操作的原子性</t>
-  </si>
-  <si>
-    <t>2.每个线程在java堆中预先分配一小块内存TLAB，哪个线程要分配内存，就在哪个线程的TLAB上分配，</t>
+    <t>1.分配内存空间的动作进行同步处理，虚拟机采用CAS配上失败重试的方法保证更新操作的原子性</t>
+  </si>
+  <si>
+    <t>2.本地线程分配缓存，每个线程在java堆中预先分配一小块内存TLAB，哪个线程要分配内存，就在哪个线程的TLAB上分配，</t>
   </si>
   <si>
     <t>只有TLAB用完并分配新的TLAB时，才需要同步锁定。</t>
@@ -432,10 +432,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -446,8 +446,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,10 +506,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,38 +535,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,30 +560,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,30 +589,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -599,187 +599,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,6 +790,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -808,10 +823,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -835,23 +867,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,59 +882,42 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,115 +926,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,6 +1104,53 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>324485</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>13970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="1533525"/>
+          <a:ext cx="2267585" cy="1195070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1452,8 +1499,8 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1607,10 +1654,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1676,96 +1723,97 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1775,7 +1823,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1844,7 +1892,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>

--- a/JVM/2.内存管理机制.xlsx
+++ b/JVM/2.内存管理机制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935" tabRatio="758" activeTab="3"/>
+    <workbookView windowWidth="19935" windowHeight="8970" tabRatio="758" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JVM5大块说明" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <r>
       <rPr>
@@ -301,13 +301,16 @@
     <t>可达性分析算法</t>
   </si>
   <si>
-    <t>通过一系列的GC Roots的对象作为起始点，从这些节点，</t>
-  </si>
-  <si>
-    <t>从这些节点开始向下搜索，搜索所走过的路径成为引用链</t>
-  </si>
-  <si>
-    <t>当一个对象到GC Roots没有任何应用链相连接时，则证明此对象时不可用的。</t>
+    <t>通过一系列的GC Roots的对象作为起始点，</t>
+  </si>
+  <si>
+    <t>从这些节点开始向下搜索，搜索所走过的路径成为引用链Reference Chain</t>
+  </si>
+  <si>
+    <t>当一个对象到GC Roots没有任何应用链相连接时，（即从GC Roots节点到该节点不可达）则证明此对象是不可用的。</t>
+  </si>
+  <si>
+    <t>如下图所示，object1~object4对GC Root都是可达的，说明不可被回收，object5和object6对GC Root节点不可达，说明其可以被回收。</t>
   </si>
   <si>
     <t>GC自救finalize方法</t>
@@ -447,7 +450,90 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -462,49 +548,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -513,8 +556,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,62 +580,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,31 +602,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,151 +752,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,6 +811,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -819,6 +831,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,58 +893,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,133 +911,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,6 +1110,53 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305675" y="1238250"/>
+          <a:ext cx="6819900" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -1150,7 +1200,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1224,6 +1274,53 @@
         <a:xfrm>
           <a:off x="4800600" y="6877050"/>
           <a:ext cx="7381875" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="1514475"/>
+          <a:ext cx="3914775" cy="2177415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1499,8 +1596,8 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1648,6 +1745,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1656,8 +1754,8 @@
   <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1891,7 +1989,7 @@
   <sheetPr/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1972,10 +2070,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -2013,144 +2111,150 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="1" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" s="1" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2160,57 +2264,57 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/JVM/2.内存管理机制.xlsx
+++ b/JVM/2.内存管理机制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8970" tabRatio="758" activeTab="4"/>
+    <workbookView windowWidth="25200" windowHeight="12165" tabRatio="758" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JVM5大块说明" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <r>
       <rPr>
@@ -316,7 +316,22 @@
     <t>GC自救finalize方法</t>
   </si>
   <si>
-    <t>对象就会放置在一个叫F-QUEUE的队列中，由虚拟机自动建立的，低优先级的finalizer线程去执行它</t>
+    <t>Java虚拟机通过可达性分析等算法探测堆中不可达的对象，当一个对象通过可达性算法不可达时，并非立即被回收，而是暂时处于在“缓刑”状态，而真正要宣告一个对象死亡，必须经历至少2次标记过程</t>
+  </si>
+  <si>
+    <t>如果对象在进行可达性分析后发现与GC Roots引用链不相连时，那么它会被第一次标记并且进行一次筛选，筛选的条件是此对象是否需要执行finalize()方法。</t>
+  </si>
+  <si>
+    <t>当对象没有覆盖finalize()方法，或者finalize()方法已经被虚拟机执行过，那么这2种情况都被视作没有必要执行。</t>
+  </si>
+  <si>
+    <t>如果对象被判定需要执行finalize()方法，那么这个对象将会放置在一个F-Queue队列中，并在之后由虚拟机自动建立的，低优先级的Finalizer线程去执行队列中的finalize()方法</t>
+  </si>
+  <si>
+    <t>finalize()方法是对象逃脱被GC回收的最后一次机会，之后GC对F-Queue中的对象进行第二次标记，如果对象在finalize()中成功自救（只要重新与GC Roots引用链关联，如把自己赋值给某个类变量或对象的成员变量）</t>
+  </si>
+  <si>
+    <t>那么第二次标记时将移出回收集合</t>
   </si>
   <si>
     <t>finalize方法只会被系统调用一次</t>
@@ -346,7 +361,7 @@
     <t>首先标记出所有需要回收的对象</t>
   </si>
   <si>
-    <t>标记完后同一回收</t>
+    <t>标记完后统一回收</t>
   </si>
   <si>
     <t>缺点</t>
@@ -388,10 +403,43 @@
     <t>分代收集算法</t>
   </si>
   <si>
-    <t>新生代因为每次垃圾收集都发现有大批对象死去，只有少量存活，所以使用复制算法</t>
+    <t>这种算法并没有什么新的思想，只是根据对象存活周期的不同将内存划分为几块。一般是把Java堆分为新生代和老年代，这样就可以根据各个年代的特点采用最适合的收集算法。</t>
+  </si>
+  <si>
+    <t>新生代因为每次垃圾收集都发现有大批对象死去，只有少量存活，所以使用复制算法，只需要付出少量存活对象的复制成本就可以完成。</t>
   </si>
   <si>
     <t>老年代中因为对象存活率搞，没有额外空间对他们分配，必须使用标记清理或标记整理</t>
+  </si>
+  <si>
+    <t>在Java虚拟机分代垃圾回收机制中，应用程序可用的堆空间可以分为年轻代与老年代，然后年轻代有被分为Eden区，From区与To区。</t>
+  </si>
+  <si>
+    <t>当系统创建一个对象的时候，总是在Eden区操作，当这个区满了，那么就会触发一次YoungGC，也就是年轻代的垃圾回收。</t>
+  </si>
+  <si>
+    <t>一般来说这时候不是所有的对象都没用了，所以就会把还能用的对象复制到From区。</t>
+  </si>
+  <si>
+    <t>这样整个Eden区就被清理干净了，可以继续创建新的对象，当Eden区再次被用完，就再触发一次YoungGC，</t>
+  </si>
+  <si>
+    <t>然后呢，注意，这个时候跟刚才稍稍有点区别。这次触发YoungGC后，会将Eden区与From区还在被使用的对象复制到To区，</t>
+  </si>
+  <si>
+    <t>再下一次YoungGC的时候，则是将Eden区与To区中的还在被使用的对象复制到From区。</t>
+  </si>
+  <si>
+    <t>经过若干次YoungGC后，有些对象在From与To之间来回游荡，这时候From区与To区亮出了底线（阈值），这些家伙要是到现在还没挂掉，对不起，一起滚到（复制）老年代吧。</t>
+  </si>
+  <si>
+    <t>老年代经过这么几次折腾，也就扛不住了（空间被用完），好，那就来次集体大扫除（Full GC），也就是全量回收，一起滚蛋吧。</t>
+  </si>
+  <si>
+    <t>全量回收呢，就好比我们刚才比作的大扫除，毕竟动做比较大，成本高，不能跟平时的小型值日（Young GC）相比，所以如果Full GC使用太频繁的话，无疑会对系统性能产生很大的影响。</t>
+  </si>
+  <si>
+    <t>所以要合理设置年轻代与老年代的大小，尽量减少Full GC的操作</t>
   </si>
   <si>
     <t>jps</t>
@@ -435,10 +483,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -449,16 +497,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,17 +513,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,22 +528,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,22 +542,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -550,22 +574,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,14 +611,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,49 +650,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,133 +806,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,8 +862,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,24 +883,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -864,6 +894,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,165 +935,164 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1333,6 +1382,258 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="9239250"/>
+          <a:ext cx="6086475" cy="3743325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="14220825"/>
+          <a:ext cx="5353050" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="16468725"/>
+          <a:ext cx="5448300" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="18640425"/>
+          <a:ext cx="5381625" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="20631150"/>
+          <a:ext cx="5314950" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="22621875"/>
+          <a:ext cx="5324475" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1603,7 +1904,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1678,7 +1979,7 @@
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2070,13 +2371,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -2127,62 +2428,63 @@
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="1" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2191,64 +2493,144 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2271,50 +2653,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/JVM/2.内存管理机制.xlsx
+++ b/JVM/2.内存管理机制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12165" tabRatio="758" activeTab="4"/>
+    <workbookView windowWidth="25200" windowHeight="12165" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="JVM5大块说明" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <r>
       <rPr>
@@ -124,6 +124,21 @@
     <t>用于存放编译期生成的各种字面量和符号引用，这部分内容就在加载后进入方法区的运行时常量池中存放</t>
   </si>
   <si>
+    <t>字面量：字面量就是比如说int a = 1; 这个1就是字面量。又比如String a = "abc",这个abc就是字面量。</t>
+  </si>
+  <si>
+    <t>符号引用：在java中，一个java类将会编译成一个class文件。在编译时，java类并不知道引用类的实际内存地址，因此只能使用符号引用来代替。</t>
+  </si>
+  <si>
+    <t>比如org.simple.People类要引用org.simple.Tool类，在编译时People类并不知道Tool类的实际内存地址，</t>
+  </si>
+  <si>
+    <t>因此只能使用符号org.simple.Tool(假设)来表示Tool类的地址。</t>
+  </si>
+  <si>
+    <t>而在类装载器装载People类时，此时可以通过虚拟机获取Tool类 的实际内存地址，因此便可以既将符号org.simple.Tool替换为Tool类的实际内存地址，及直接引用地址。</t>
+  </si>
+  <si>
     <t>虚拟机遇到一条new指令时</t>
   </si>
   <si>
@@ -497,8 +512,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,16 +535,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,15 +558,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,17 +572,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,39 +596,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -633,9 +626,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,49 +665,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,133 +845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,6 +856,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -855,65 +881,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,8 +903,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,10 +962,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,133 +974,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1895,13 +1910,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
@@ -2041,6 +2056,31 @@
     <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2063,150 +2103,150 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2232,51 +2272,51 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2298,67 +2338,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2373,7 +2413,7 @@
   <sheetPr/>
   <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -2384,253 +2424,253 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2653,50 +2693,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/JVM/2.内存管理机制.xlsx
+++ b/JVM/2.内存管理机制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12165" tabRatio="758"/>
+    <workbookView windowWidth="25200" windowHeight="12165" tabRatio="758" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JVM5大块说明" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <r>
       <rPr>
@@ -370,22 +370,31 @@
     <t>标记清除算法Mark-Sweep</t>
   </si>
   <si>
-    <t>算法分为标记和清除两个阶段</t>
-  </si>
-  <si>
-    <t>首先标记出所有需要回收的对象</t>
-  </si>
-  <si>
-    <t>标记完后统一回收</t>
+    <t>它的做法是当堆中的有效内存空间（available memory）被耗尽的时候，就会让整个程序stop the world,然后进行两项工作，第一是标记，第二是清除</t>
+  </si>
+  <si>
+    <t>标记： 标记的过程其实就是，遍历所有的GC Roots，然后将所有的 GC Roots不可达的对象标记为非存活的对象。</t>
+  </si>
+  <si>
+    <t>清除： 清楚的过程将遍历堆中所有的对象中有标记的对象全部清除掉</t>
+  </si>
+  <si>
+    <t>Stop the world：从应用中停下来并进入到GC执行过程中去。一旦Stop-the-world发生，除了GC所需的线程外，其他线程都将停止工作，中断了的线程直到GC任务结束才继续它们的任务。GC调优通常就是为了改善stop-the-world的时间。</t>
   </si>
   <si>
     <t>缺点</t>
   </si>
   <si>
-    <t>1。效率问题，标记和清楚两个过程效率都不高</t>
-  </si>
-  <si>
-    <t>2 空间问题，标记清除后会产生大量不连续的内存碎片，空间碎片会导致以后再程序运行过程中需要分配大对象时，无法找到足够的连续内存而不得不提前出发另一次垃圾回收动作</t>
+    <t>1 效率问题效率比较低（递归与全堆对象遍历），而且在进行GC的时候，需要停止应用程序，这会导致用户体验非常差劲，尤其对于交互式的应用程序来说简直是无法接受。</t>
+  </si>
+  <si>
+    <t>试想一下，如果你玩一个网站，这个网站一个小时就挂五分钟，你还玩吗？</t>
+  </si>
+  <si>
+    <t>2 空间问题，这种方式清理出来的空闲内存是不连续的，这点不难理解，我们的死亡对象都是随即的出现在内存的各个角落的，现在把它们清除之后，内存的布局自然会乱七八糟。</t>
+  </si>
+  <si>
+    <t>而为了应付这一点，JVM就不得不维持一个内存的空闲列表，这又是一种开销。而且在分配数组对象的时候，寻找连续的内存空间会不太好找。</t>
   </si>
   <si>
     <t>复制算法</t>
@@ -491,6 +500,63 @@
   </si>
   <si>
     <t>Stack Trace for Java，显示虚拟机的线程快照</t>
+  </si>
+  <si>
+    <t>jstat -gccause 28061(pid)  监视Java堆状况，包括Eden区、两个survivor区、老年代、永久代等的容量、已用空间、GC时间合计等信息、导致上一次GC产生的原因</t>
+  </si>
+  <si>
+    <t>S0  S1 E O M CCS YGC YGCT FGC FGCT GCT LGCC GCC</t>
+  </si>
+  <si>
+    <t>36.15 0.00 56.61 30.54 91.83 87.63 944 119.607 5 5.926 125.532 Allocation Failure No GC</t>
+  </si>
+  <si>
+    <t>S0：年轻代中第一个survivor（幸存区）已使用的占当前容量百分比</t>
+  </si>
+  <si>
+    <t>S1：年轻代中第二个survivor（幸存区）已使用的占当前容量百分比</t>
+  </si>
+  <si>
+    <t>E：年轻代中Eden（伊甸园）已使用的占当前容量百分比</t>
+  </si>
+  <si>
+    <t>O：old代已使用的占当前容量百分比</t>
+  </si>
+  <si>
+    <t>M:元空间(Metaspace)已使用的占当前容量百分比,类似1.8之前的永久代(PermGen)</t>
+  </si>
+  <si>
+    <t>CCS：CCS表示的是Metaspace的使用率，也就是CCSU/CCSC算出来的</t>
+  </si>
+  <si>
+    <t>YGC：从应用程序启动到采样时年轻代中gc次数</t>
+  </si>
+  <si>
+    <t>YGCT：从应用程序启动到采样时年轻代中gc所用时间(s)</t>
+  </si>
+  <si>
+    <t>FGC：从应用程序启动到采样时old代(全gc)gc次数</t>
+  </si>
+  <si>
+    <t>FGCT：从应用程序启动到采样时old代(全gc)gc所用时间(s)</t>
+  </si>
+  <si>
+    <t>GCT：从应用程序启动到采样时gc用的总时间(s)</t>
+  </si>
+  <si>
+    <t>LGCC：最近一次full gc的原因</t>
+  </si>
+  <si>
+    <t>jmap -heap 28061(pid) 显示Java堆详细信息，如使用哪种回收器、参数配置、分代状况等</t>
+  </si>
+  <si>
+    <t>jmap -dump:[live,]format=b,file=&lt;filename&gt; pid</t>
+  </si>
+  <si>
+    <t>生成Java堆转储快照。格式为：-dump:[live,]format=b,file=&lt;filename&gt;,其中live子</t>
+  </si>
+  <si>
+    <t>jmap -histo pid 显示堆中对象统计信息，包括类、实例数据、合计容量。</t>
   </si>
 </sst>
 </file>
@@ -498,12 +564,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,9 +578,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,18 +607,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,7 +623,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,32 +631,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,9 +644,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +668,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,9 +689,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,6 +711,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -665,6 +737,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -677,31 +755,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,7 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,127 +917,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,17 +928,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -885,26 +946,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,8 +969,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,16 +1005,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -962,10 +1034,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,138 +1046,141 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1401,13 +1476,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1425,7 +1500,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2771775" y="9239250"/>
+          <a:off x="2771775" y="9601200"/>
           <a:ext cx="6086475" cy="3743325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1443,13 +1518,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1467,7 +1542,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="14220825"/>
+          <a:off x="647700" y="14582775"/>
           <a:ext cx="5353050" cy="1504950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1485,13 +1560,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1509,7 +1584,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="16468725"/>
+          <a:off x="685800" y="16830675"/>
           <a:ext cx="5448300" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1527,13 +1602,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1551,7 +1626,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="18640425"/>
+          <a:off x="685800" y="19002375"/>
           <a:ext cx="5381625" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1569,13 +1644,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1593,7 +1668,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="20631150"/>
+          <a:off x="685800" y="20993100"/>
           <a:ext cx="5314950" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1611,13 +1686,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1635,7 +1710,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="22621875"/>
+          <a:off x="685800" y="22983825"/>
           <a:ext cx="5324475" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1912,14 +1987,14 @@
   <sheetPr/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1994,7 +2069,7 @@
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2411,266 +2486,281 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
+    <row r="44" spans="3:3">
+      <c r="C44" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="1" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="1" t="s">
+    <row r="46" spans="3:3">
+      <c r="C46" s="2" t="s">
         <v>118</v>
       </c>
     </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="1" t="s">
-        <v>119</v>
+      <c r="B48" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="1" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="1" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="2" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="1" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="1" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="2" t="s">
         <v>127</v>
       </c>
     </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="1" t="s">
-        <v>128</v>
+      <c r="B77" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="1" t="s">
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="1" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="1" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="1" t="s">
+    <row r="93" spans="2:2">
+      <c r="B93" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="1" t="s">
+    <row r="104" spans="2:2">
+      <c r="B104" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="1" t="s">
+    <row r="105" spans="2:2">
+      <c r="B105" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="1" t="s">
+    <row r="116" spans="2:2">
+      <c r="B116" s="2" t="s">
         <v>137</v>
       </c>
     </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="1" t="s">
-        <v>138</v>
+      <c r="B137" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2683,61 +2773,222 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A33" sqref="A33:E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/JVM/2.内存管理机制.xlsx
+++ b/JVM/2.内存管理机制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12165" tabRatio="758" activeTab="4"/>
+    <workbookView windowWidth="25200" windowHeight="12165" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="JVM5大块说明" sheetId="2" r:id="rId1"/>
@@ -564,10 +564,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -584,9 +584,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,7 +652,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,44 +682,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -660,22 +691,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,40 +706,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,187 +737,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,65 +928,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1008,8 +949,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,16 +993,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,133 +1046,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1987,8 +1987,8 @@
   <sheetPr/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2488,7 +2488,7 @@
   <sheetPr/>
   <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
